--- a/Reinforcement Based Clustering/StrategicMutualFunds.xlsx
+++ b/Reinforcement Based Clustering/StrategicMutualFunds.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06dff848b0335e79/Documents/GitHub/RL_Clustering/Reinforcement Based Clustering/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_47F5075B93A67F5B78F7FEFF50DBBFBC4525E2F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="114">
   <si>
     <t>StrategicMutualFunds</t>
   </si>
@@ -358,10 +367,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -374,7 +380,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -515,55 +521,55 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,26 +579,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -791,7 +856,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -810,7 +875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -840,7 +905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -866,7 +931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -892,7 +957,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -918,7 +983,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -944,7 +1009,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -970,7 +1035,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -996,7 +1061,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1087,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1048,7 +1113,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1061,9 +1126,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1080,7 +1151,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1099,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1125,7 +1196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1151,7 +1222,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1177,7 +1248,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,7 +1274,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1229,7 +1300,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1255,7 +1326,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1281,7 +1352,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1307,7 +1378,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1333,7 +1404,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1346,9 +1417,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1362,7 +1439,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1381,7 +1458,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1411,7 +1488,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1437,7 +1514,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1463,7 +1540,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1489,7 +1566,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1515,7 +1592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1541,7 +1618,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1567,7 +1644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1593,7 +1670,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1619,7 +1696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1632,2998 +1709,3008 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="19.899999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.17188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.8516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.17188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.17188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.1719" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="27.6" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>13.24</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>14.45</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1.39</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>70</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>30</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>421</v>
       </c>
-      <c r="H3" t="s" s="7">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>224</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="8">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>15.95</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>18.07</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>0.82</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>51</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>49</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>643</v>
       </c>
-      <c r="H4" t="s" s="11">
+      <c r="H4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>201</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="8">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>12.06</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>13.29</v>
       </c>
-      <c r="D5" s="10">
-        <v>1.12</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E5" s="9">
         <v>77</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>23</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>999</v>
       </c>
-      <c r="H5" t="s" s="11">
+      <c r="H5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>280</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="8">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>15.66</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>14.1</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>0.96</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>52</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>48</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>946</v>
       </c>
-      <c r="H6" t="s" s="11">
+      <c r="H6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>11.27</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>14.88</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1.55</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>63</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>37</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>541</v>
       </c>
-      <c r="H7" t="s" s="11">
+      <c r="H7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="9">
         <v>274</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>13.95</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>10.6</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>1.29</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>57</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>43</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>334</v>
       </c>
-      <c r="H8" t="s" s="11">
+      <c r="H8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <v>215</v>
       </c>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>9.02</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>13.36</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1.4</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>55</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>45</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>865</v>
       </c>
-      <c r="H9" t="s" s="11">
+      <c r="H9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>115</v>
       </c>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>10.85</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>15.27</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1.47</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>93</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>7</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>461</v>
       </c>
-      <c r="H10" t="s" s="11">
+      <c r="H10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>211</v>
       </c>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="8">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>12.55</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <v>18.53</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>1.54</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>57</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>43</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>1316</v>
       </c>
-      <c r="H11" t="s" s="11">
+      <c r="H11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>199</v>
       </c>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="8">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>9.48</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>8.67</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>1.02</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>73</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>27</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>516</v>
       </c>
-      <c r="H12" t="s" s="11">
+      <c r="H12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="9">
         <v>261</v>
       </c>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="8">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>8.23</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>17.89</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1.04</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>94</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>6</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>364</v>
       </c>
-      <c r="H13" t="s" s="11">
+      <c r="H13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="8">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>10.31</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>17.45</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>0.8</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>60</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>40</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>892</v>
       </c>
-      <c r="H14" t="s" s="11">
+      <c r="H14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>172</v>
       </c>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="8">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>13.19</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>20.21</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1.54</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <v>90</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>10</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>1351</v>
       </c>
-      <c r="H15" t="s" s="11">
+      <c r="H15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <v>144</v>
       </c>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="8">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>11.58</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="9">
         <v>19.66</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>0.88</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="9">
         <v>72</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>28</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>1104</v>
       </c>
-      <c r="H16" t="s" s="11">
+      <c r="H16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="9">
         <v>108</v>
       </c>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="8">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>8.06</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>17.55</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>1.25</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="9">
         <v>84</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>16</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>912</v>
       </c>
-      <c r="H17" t="s" s="11">
+      <c r="H17" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="8">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>12.9</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>21.15</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>1.42</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="9">
         <v>88</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>12</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>1094</v>
       </c>
-      <c r="H18" t="s" s="11">
+      <c r="H18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="9">
         <v>216</v>
       </c>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="8">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>11</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="9">
         <v>14.76</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>0.89</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="9">
         <v>81</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="9">
         <v>19</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>1042</v>
       </c>
-      <c r="H19" t="s" s="11">
+      <c r="H19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="9">
         <v>250</v>
       </c>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="8">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>12.23</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="9">
         <v>7.05</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>1.53</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>72</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="9">
         <v>28</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>530</v>
       </c>
-      <c r="H20" t="s" s="11">
+      <c r="H20" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="10">
+      <c r="I20" s="9">
         <v>246</v>
       </c>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="8">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="9">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="C21" s="10">
+      <c r="B21" s="8">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="C21" s="9">
         <v>15.76</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>1.55</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="9">
         <v>56</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>44</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>1409</v>
       </c>
-      <c r="H21" t="s" s="11">
+      <c r="H21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="9">
         <v>293</v>
       </c>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="8">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>14.29</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="9">
         <v>16.32</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>1.44</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="9">
         <v>93</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="9">
         <v>7</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>489</v>
       </c>
-      <c r="H22" t="s" s="11">
+      <c r="H22" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="9">
         <v>234</v>
       </c>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="8">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>14.12</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="9">
         <v>9.75</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>0.8</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="9">
         <v>62</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>38</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>1009</v>
       </c>
-      <c r="H23" t="s" s="11">
+      <c r="H23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="9">
         <v>146</v>
       </c>
     </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="8">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>16.86</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="9">
         <v>14.39</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>1.02</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="9">
         <v>73</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <v>27</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>1436</v>
       </c>
-      <c r="H24" t="s" s="11">
+      <c r="H24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="9">
         <v>61</v>
       </c>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="8">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>14.04</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="9">
         <v>10.78</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>1.37</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="9">
         <v>86</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="9">
         <v>14</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>1251</v>
       </c>
-      <c r="H25" t="s" s="11">
+      <c r="H25" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I25" s="10">
+      <c r="I25" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="8">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>10.9</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="9">
         <v>14.66</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>1.08</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="9">
         <v>50</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="9">
         <v>50</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>1453</v>
       </c>
-      <c r="H26" t="s" s="11">
+      <c r="H26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="10">
+      <c r="I26" s="9">
         <v>62</v>
       </c>
     </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="8">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>12.85</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="9">
         <v>14.97</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>0.99</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="9">
         <v>53</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="9">
         <v>47</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>502</v>
       </c>
-      <c r="H27" t="s" s="11">
+      <c r="H27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="9">
         <v>193</v>
       </c>
     </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="8">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>13.98</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="9">
         <v>11.36</v>
       </c>
-      <c r="D28" s="10">
-        <v>1.09</v>
-      </c>
-      <c r="E28" s="10">
+      <c r="D28" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E28" s="9">
         <v>83</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="9">
         <v>17</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="9">
         <v>497</v>
       </c>
-      <c r="H28" t="s" s="11">
+      <c r="H28" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="10">
+      <c r="I28" s="9">
         <v>249</v>
       </c>
     </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="8">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>10.89</v>
       </c>
-      <c r="C29" s="10">
-        <v>16.51</v>
-      </c>
-      <c r="D29" s="10">
+      <c r="C29" s="9">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="D29" s="9">
         <v>1.21</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="9">
         <v>65</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="9">
         <v>35</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>959</v>
       </c>
-      <c r="H29" t="s" s="11">
+      <c r="H29" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="10">
+      <c r="I29" s="9">
         <v>261</v>
       </c>
     </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="8">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="9">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="C30" s="10">
+      <c r="B30" s="8">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="C30" s="9">
         <v>15.27</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>1.32</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="9">
         <v>90</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="9">
         <v>10</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>1228</v>
       </c>
-      <c r="H30" t="s" s="11">
+      <c r="H30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="10">
+      <c r="I30" s="9">
         <v>137</v>
       </c>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="8">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>15.12</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="9">
         <v>15.26</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>1.34</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="9">
         <v>74</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="9">
         <v>26</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>450</v>
       </c>
-      <c r="H31" t="s" s="11">
+      <c r="H31" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="10">
+      <c r="I31" s="9">
         <v>108</v>
       </c>
     </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="8">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>10.44</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="9">
         <v>12.91</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>1.59</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>98</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="9">
         <v>2</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>301</v>
       </c>
-      <c r="H32" t="s" s="11">
+      <c r="H32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="10">
+      <c r="I32" s="9">
         <v>263</v>
       </c>
     </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="8">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>8.4</v>
       </c>
-      <c r="C33" s="10">
-        <v>19.76</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="C33" s="9">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="D33" s="9">
         <v>1.08</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="9">
         <v>97</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="9">
         <v>3</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>507</v>
       </c>
-      <c r="H33" t="s" s="11">
+      <c r="H33" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="10">
+      <c r="I33" s="9">
         <v>140</v>
       </c>
     </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="8">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="8">
         <v>11.29</v>
       </c>
-      <c r="C34" s="10">
-        <v>19.26</v>
-      </c>
-      <c r="D34" s="10">
+      <c r="C34" s="9">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="D34" s="9">
         <v>1.51</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="9">
         <v>60</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="9">
         <v>40</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>403</v>
       </c>
-      <c r="H34" t="s" s="11">
+      <c r="H34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>263</v>
       </c>
     </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="8">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35" s="8">
         <v>12.44</v>
       </c>
-      <c r="C35" s="10">
-        <v>10.13</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="C35" s="9">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="D35" s="9">
         <v>1.35</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="9">
         <v>65</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="9">
         <v>35</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>1256</v>
       </c>
-      <c r="H35" t="s" s="11">
+      <c r="H35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="9">
         <v>178</v>
       </c>
     </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="8">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="8">
         <v>8.67</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="9">
         <v>14.9</v>
       </c>
-      <c r="D36" s="10">
-        <v>1.09</v>
-      </c>
-      <c r="E36" s="10">
+      <c r="D36" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E36" s="9">
         <v>57</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="9">
         <v>43</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>1458</v>
       </c>
-      <c r="H36" t="s" s="11">
+      <c r="H36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="9">
         <v>204</v>
       </c>
     </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="8">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37" s="8">
         <v>14.06</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="9">
         <v>22.59</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>0.87</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="9">
         <v>71</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="9">
         <v>29</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>1345</v>
       </c>
-      <c r="H37" t="s" s="11">
+      <c r="H37" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="9">
         <v>247</v>
       </c>
     </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="8">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="8">
         <v>12.79</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="9">
         <v>15.24</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>1.19</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="9">
         <v>57</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="9">
         <v>43</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>326</v>
       </c>
-      <c r="H38" t="s" s="11">
+      <c r="H38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="10">
+      <c r="I38" s="9">
         <v>235</v>
       </c>
     </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="8">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39" s="8">
         <v>15.25</v>
       </c>
-      <c r="C39" s="10">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="C39" s="9">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="D39" s="9">
         <v>1.34</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="9">
         <v>82</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="9">
         <v>18</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>752</v>
       </c>
-      <c r="H39" t="s" s="11">
+      <c r="H39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="9">
         <v>156</v>
       </c>
     </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="8">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="8">
         <v>15.7</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="9">
         <v>16.59</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>0.83</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="9">
         <v>93</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="9">
         <v>7</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>457</v>
       </c>
-      <c r="H40" t="s" s="11">
+      <c r="H40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I40" s="10">
+      <c r="I40" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="8">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41" s="8">
         <v>11.44</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="9">
         <v>17.86</v>
       </c>
-      <c r="D41" s="10">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E41" s="10">
+      <c r="D41" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="E41" s="9">
         <v>73</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="9">
         <v>27</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>796</v>
       </c>
-      <c r="H41" t="s" s="11">
+      <c r="H41" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="9">
         <v>190</v>
       </c>
     </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="8">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="8">
         <v>12.84</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="9">
         <v>15.2</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>0.86</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="9">
         <v>70</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="9">
         <v>30</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>1227</v>
       </c>
-      <c r="H42" t="s" s="11">
+      <c r="H42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I42" s="9">
         <v>170</v>
       </c>
     </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="8">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43" s="8">
         <v>9.68</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="9">
         <v>12.95</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>1.25</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="9">
         <v>80</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="9">
         <v>20</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>865</v>
       </c>
-      <c r="H43" t="s" s="11">
+      <c r="H43" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="9">
         <v>67</v>
       </c>
     </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="8">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="8">
         <v>13.59</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="9">
         <v>10.68</v>
       </c>
-      <c r="D44" s="10">
-        <v>1.09</v>
-      </c>
-      <c r="E44" s="10">
+      <c r="D44" s="9">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E44" s="9">
         <v>76</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="9">
         <v>24</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>789</v>
       </c>
-      <c r="H44" t="s" s="11">
+      <c r="H44" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="10">
+      <c r="I44" s="9">
         <v>282</v>
       </c>
     </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="8">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45" s="8">
         <v>13.12</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="9">
         <v>22.12</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>1.04</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="9">
         <v>75</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="9">
         <v>25</v>
       </c>
-      <c r="G45" s="10">
+      <c r="G45" s="9">
         <v>1220</v>
       </c>
-      <c r="H45" t="s" s="11">
+      <c r="H45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="9">
         <v>22</v>
       </c>
     </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="8">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="9">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="C46" s="10">
+      <c r="B46" s="8">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C46" s="9">
         <v>16.98</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>0.86</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="9">
         <v>95</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="9">
         <v>5</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>699</v>
       </c>
-      <c r="H46" t="s" s="11">
+      <c r="H46" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="10">
+      <c r="I46" s="9">
         <v>151</v>
       </c>
     </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="8">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47" s="8">
         <v>11.21</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="9">
         <v>18.04</v>
       </c>
-      <c r="D47" s="10">
-        <v>1.1</v>
-      </c>
-      <c r="E47" s="10">
+      <c r="D47" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E47" s="9">
         <v>51</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="9">
         <v>49</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G47" s="9">
         <v>1026</v>
       </c>
-      <c r="H47" t="s" s="11">
+      <c r="H47" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="8">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="8">
         <v>17.79</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="9">
         <v>7.53</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>1.03</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="9">
         <v>71</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="9">
         <v>29</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>604</v>
       </c>
-      <c r="H48" t="s" s="11">
+      <c r="H48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="9">
         <v>189</v>
       </c>
     </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="8">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49" s="8">
         <v>7.02</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="9">
         <v>16.7</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>1.46</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="9">
         <v>93</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="9">
         <v>7</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="9">
         <v>304</v>
       </c>
-      <c r="H49" t="s" s="11">
+      <c r="H49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I49" s="10">
+      <c r="I49" s="9">
         <v>112</v>
       </c>
     </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="8">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="8">
         <v>17.97</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="9">
         <v>22.37</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>1.31</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="9">
         <v>65</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="9">
         <v>35</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="9">
         <v>568</v>
       </c>
-      <c r="H50" t="s" s="11">
+      <c r="H50" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I50" s="10">
+      <c r="I50" s="9">
         <v>133</v>
       </c>
     </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="8">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B51" s="9">
+      <c r="B51" s="8">
         <v>8.73</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="9">
         <v>7.04</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>1.4</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="9">
         <v>75</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="9">
         <v>25</v>
       </c>
-      <c r="G51" s="10">
+      <c r="G51" s="9">
         <v>1040</v>
       </c>
-      <c r="H51" t="s" s="11">
+      <c r="H51" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="9">
         <v>126</v>
       </c>
     </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="8">
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="9">
+      <c r="B52" s="8">
         <v>11.66</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="9">
         <v>11.83</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>1.35</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="9">
         <v>50</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="9">
         <v>50</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="9">
         <v>1381</v>
       </c>
-      <c r="H52" t="s" s="11">
+      <c r="H52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="10">
+      <c r="I52" s="9">
         <v>131</v>
       </c>
     </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="8">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="9">
+      <c r="B53" s="8">
         <v>10.81</v>
       </c>
-      <c r="C53" s="10">
+      <c r="C53" s="9">
         <v>12.39</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>1.24</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="9">
         <v>97</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F53" s="9">
         <v>3</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G53" s="9">
         <v>787</v>
       </c>
-      <c r="H53" t="s" s="11">
+      <c r="H53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="9">
         <v>246</v>
       </c>
     </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="8">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="8">
         <v>12.94</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="9">
         <v>21.61</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>1.29</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="9">
         <v>52</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="9">
         <v>48</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="9">
         <v>1399</v>
       </c>
-      <c r="H54" t="s" s="11">
+      <c r="H54" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="9">
         <v>163</v>
       </c>
     </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="8">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="9">
+      <c r="B55" s="8">
         <v>15.17</v>
       </c>
-      <c r="C55" s="10">
+      <c r="C55" s="9">
         <v>12.17</v>
       </c>
-      <c r="D55" s="10">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="E55" s="10">
+      <c r="D55" s="9">
+        <v>0.81</v>
+      </c>
+      <c r="E55" s="9">
         <v>63</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F55" s="9">
         <v>37</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G55" s="9">
         <v>1392</v>
       </c>
-      <c r="H55" t="s" s="11">
+      <c r="H55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="9">
         <v>56</v>
       </c>
     </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="8">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="9">
+      <c r="B56" s="8">
         <v>11.41</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="9">
         <v>22.49</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>0.88</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="9">
         <v>97</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>3</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <v>640</v>
       </c>
-      <c r="H56" t="s" s="11">
+      <c r="H56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="8">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="9">
+      <c r="B57" s="8">
         <v>10.8</v>
       </c>
-      <c r="C57" s="10">
+      <c r="C57" s="9">
         <v>6.62</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>1.32</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="9">
         <v>59</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F57" s="9">
         <v>41</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G57" s="9">
         <v>1423</v>
       </c>
-      <c r="H57" t="s" s="11">
+      <c r="H57" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I57" s="10">
+      <c r="I57" s="9">
         <v>299</v>
       </c>
     </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="8">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B58" s="9">
+      <c r="B58" s="8">
         <v>12</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="9">
         <v>18.02</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>1.23</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="9">
         <v>94</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="9">
         <v>6</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="9">
         <v>815</v>
       </c>
-      <c r="H58" t="s" s="11">
+      <c r="H58" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I58" s="10">
+      <c r="I58" s="9">
         <v>25</v>
       </c>
     </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="8">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="9">
+      <c r="B59" s="8">
         <v>12.5</v>
       </c>
-      <c r="C59" s="10">
+      <c r="C59" s="9">
         <v>12.6</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>0.82</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="9">
         <v>81</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="9">
         <v>19</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <v>1151</v>
       </c>
-      <c r="H59" t="s" s="11">
+      <c r="H59" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="10">
+      <c r="I59" s="9">
         <v>161</v>
       </c>
     </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="8">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="9">
+      <c r="B60" s="8">
         <v>13.87</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="9">
         <v>22.24</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>0.9</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="9">
         <v>92</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="9">
         <v>8</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="9">
         <v>1491</v>
       </c>
-      <c r="H60" t="s" s="11">
+      <c r="H60" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="10">
+      <c r="I60" s="9">
         <v>52</v>
       </c>
     </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="8">
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B61" s="9">
+      <c r="B61" s="8">
         <v>12.7</v>
       </c>
-      <c r="C61" s="10">
+      <c r="C61" s="9">
         <v>12.51</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>0.86</v>
       </c>
-      <c r="E61" s="10">
+      <c r="E61" s="9">
         <v>57</v>
       </c>
-      <c r="F61" s="10">
+      <c r="F61" s="9">
         <v>43</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="9">
         <v>904</v>
       </c>
-      <c r="H61" t="s" s="11">
+      <c r="H61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I61" s="10">
+      <c r="I61" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="8">
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>8.9</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="9">
         <v>11.7</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>1.2</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="9">
         <v>99</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="9">
         <v>1</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <v>1398</v>
       </c>
-      <c r="H62" t="s" s="11">
+      <c r="H62" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I62" s="10">
+      <c r="I62" s="9">
         <v>226</v>
       </c>
     </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="8">
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>10.43</v>
       </c>
-      <c r="C63" s="10">
-        <v>18.51</v>
-      </c>
-      <c r="D63" s="10">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E63" s="10">
+      <c r="C63" s="9">
+        <v>18.510000000000002</v>
+      </c>
+      <c r="D63" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="E63" s="9">
         <v>58</v>
       </c>
-      <c r="F63" s="10">
+      <c r="F63" s="9">
         <v>42</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="9">
         <v>1219</v>
       </c>
-      <c r="H63" t="s" s="11">
+      <c r="H63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="10">
+      <c r="I63" s="9">
         <v>201</v>
       </c>
     </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="8">
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>16.03</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="9">
         <v>17.11</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>0.9</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="9">
         <v>98</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="9">
         <v>2</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="9">
         <v>395</v>
       </c>
-      <c r="H64" t="s" s="11">
+      <c r="H64" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="9">
         <v>161</v>
       </c>
     </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="8">
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>12.45</v>
       </c>
-      <c r="C65" s="10">
+      <c r="C65" s="9">
         <v>19.28</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>0.99</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="9">
         <v>62</v>
       </c>
-      <c r="F65" s="10">
+      <c r="F65" s="9">
         <v>38</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="9">
         <v>578</v>
       </c>
-      <c r="H65" t="s" s="11">
+      <c r="H65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="9">
         <v>226</v>
       </c>
     </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="8">
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>10.43</v>
       </c>
-      <c r="C66" s="10">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="D66" s="10">
+      <c r="C66" s="9">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="D66" s="9">
         <v>1.23</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="9">
         <v>69</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F66" s="9">
         <v>31</v>
       </c>
-      <c r="G66" s="10">
+      <c r="G66" s="9">
         <v>1028</v>
       </c>
-      <c r="H66" t="s" s="11">
+      <c r="H66" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="9">
         <v>196</v>
       </c>
     </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="8">
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>12.98</v>
       </c>
-      <c r="C67" s="10">
+      <c r="C67" s="9">
         <v>14.5</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>1.34</v>
       </c>
-      <c r="E67" s="10">
+      <c r="E67" s="9">
         <v>68</v>
       </c>
-      <c r="F67" s="10">
+      <c r="F67" s="9">
         <v>32</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="9">
         <v>443</v>
       </c>
-      <c r="H67" t="s" s="11">
+      <c r="H67" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I67" s="10">
+      <c r="I67" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="8">
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>9.48</v>
       </c>
-      <c r="C68" s="10">
+      <c r="C68" s="9">
         <v>10.14</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>1.34</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="9">
         <v>85</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F68" s="9">
         <v>15</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="9">
         <v>1474</v>
       </c>
-      <c r="H68" t="s" s="11">
+      <c r="H68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="9">
         <v>153</v>
       </c>
     </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="8">
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>10.25</v>
       </c>
-      <c r="C69" s="10">
+      <c r="C69" s="9">
         <v>14.96</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>1.24</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="9">
         <v>54</v>
       </c>
-      <c r="F69" s="10">
+      <c r="F69" s="9">
         <v>46</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="9">
         <v>1486</v>
       </c>
-      <c r="H69" t="s" s="11">
+      <c r="H69" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="10">
+      <c r="I69" s="9">
         <v>224</v>
       </c>
     </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="8">
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>16.53</v>
       </c>
-      <c r="C70" s="10">
+      <c r="C70" s="9">
         <v>16.62</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>1.57</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="9">
         <v>58</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F70" s="9">
         <v>42</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="9">
         <v>1397</v>
       </c>
-      <c r="H70" t="s" s="11">
+      <c r="H70" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="9">
         <v>262</v>
       </c>
     </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="8">
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>11.35</v>
       </c>
-      <c r="C71" s="10">
+      <c r="C71" s="9">
         <v>19.73</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>0.98</v>
       </c>
-      <c r="E71" s="10">
+      <c r="E71" s="9">
         <v>58</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="9">
         <v>42</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="9">
         <v>1245</v>
       </c>
-      <c r="H71" t="s" s="11">
+      <c r="H71" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I71" s="9">
         <v>292</v>
       </c>
     </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="8">
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>10.82</v>
       </c>
-      <c r="C72" s="10">
+      <c r="C72" s="9">
         <v>15.93</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>0.87</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="9">
         <v>68</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F72" s="9">
         <v>32</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="9">
         <v>799</v>
       </c>
-      <c r="H72" t="s" s="11">
+      <c r="H72" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="9">
         <v>154</v>
       </c>
     </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="8">
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>10.34</v>
       </c>
-      <c r="C73" s="10">
-        <v>20.44</v>
-      </c>
-      <c r="D73" s="10">
+      <c r="C73" s="9">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="D73" s="9">
         <v>0.87</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="9">
         <v>93</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <v>7</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="9">
         <v>466</v>
       </c>
-      <c r="H73" t="s" s="11">
+      <c r="H73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="10">
+      <c r="I73" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="8">
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>10.02</v>
       </c>
-      <c r="C74" s="10">
+      <c r="C74" s="9">
         <v>10.31</v>
       </c>
-      <c r="D74" s="10">
-        <v>1.15</v>
-      </c>
-      <c r="E74" s="10">
+      <c r="D74" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E74" s="9">
         <v>94</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F74" s="9">
         <v>6</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="9">
         <v>952</v>
       </c>
-      <c r="H74" t="s" s="11">
+      <c r="H74" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="9">
         <v>251</v>
       </c>
     </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="8">
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="8">
         <v>10.29</v>
       </c>
-      <c r="C75" s="10">
+      <c r="C75" s="9">
         <v>14.81</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>0.9</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="9">
         <v>90</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>10</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <v>1324</v>
       </c>
-      <c r="H75" t="s" s="11">
+      <c r="H75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I75" s="10">
+      <c r="I75" s="9">
         <v>199</v>
       </c>
     </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="8">
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>10.63</v>
       </c>
-      <c r="C76" s="10">
+      <c r="C76" s="9">
         <v>5.16</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>0.87</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="9">
         <v>82</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F76" s="9">
         <v>18</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="9">
         <v>1233</v>
       </c>
-      <c r="H76" t="s" s="11">
+      <c r="H76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="9">
         <v>126</v>
       </c>
     </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="8">
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>12.17</v>
       </c>
-      <c r="C77" s="10">
+      <c r="C77" s="9">
         <v>18.93</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>1.59</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="9">
         <v>86</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="9">
         <v>14</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="9">
         <v>346</v>
       </c>
-      <c r="H77" t="s" s="11">
+      <c r="H77" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="9">
         <v>242</v>
       </c>
     </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="8">
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>10.25</v>
       </c>
-      <c r="C78" s="10">
+      <c r="C78" s="9">
         <v>11.13</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>1.6</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E78" s="9">
         <v>52</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F78" s="9">
         <v>48</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="9">
         <v>955</v>
       </c>
-      <c r="H78" t="s" s="11">
+      <c r="H78" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I78" s="10">
+      <c r="I78" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="8">
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="8">
         <v>9.81</v>
       </c>
-      <c r="C79" s="10">
+      <c r="C79" s="9">
         <v>14.06</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>1.07</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="9">
         <v>77</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="9">
         <v>23</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="9">
         <v>975</v>
       </c>
-      <c r="H79" t="s" s="11">
+      <c r="H79" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I79" s="10">
+      <c r="I79" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="8">
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="9">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="C80" s="10">
+      <c r="B80" s="8">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="C80" s="9">
         <v>12.77</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>1.01</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="9">
         <v>86</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F80" s="9">
         <v>14</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="9">
         <v>340</v>
       </c>
-      <c r="H80" t="s" s="11">
+      <c r="H80" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="9">
         <v>237</v>
       </c>
     </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="8">
+    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="8">
         <v>7.22</v>
       </c>
-      <c r="C81" s="10">
+      <c r="C81" s="9">
         <v>16.45</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>1.45</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="9">
         <v>77</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="9">
         <v>23</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="9">
         <v>1051</v>
       </c>
-      <c r="H81" t="s" s="11">
+      <c r="H81" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I81" s="10">
+      <c r="I81" s="9">
         <v>55</v>
       </c>
     </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="8">
+    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="8">
         <v>16.21</v>
       </c>
-      <c r="C82" s="10">
+      <c r="C82" s="9">
         <v>8.08</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>1.54</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="9">
         <v>59</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="9">
         <v>41</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="9">
         <v>1123</v>
       </c>
-      <c r="H82" t="s" s="11">
+      <c r="H82" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="9">
         <v>295</v>
       </c>
     </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="8">
+    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="8">
         <v>11.82</v>
       </c>
-      <c r="C83" s="10">
+      <c r="C83" s="9">
         <v>13.87</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>1.45</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="9">
         <v>81</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <v>19</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <v>476</v>
       </c>
-      <c r="H83" t="s" s="11">
+      <c r="H83" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I83" s="10">
+      <c r="I83" s="9">
         <v>276</v>
       </c>
     </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="8">
+    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="8">
         <v>7.72</v>
       </c>
-      <c r="C84" s="10">
-        <v>20.42</v>
-      </c>
-      <c r="D84" s="10">
+      <c r="C84" s="9">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="D84" s="9">
         <v>1.58</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E84" s="9">
         <v>76</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="9">
         <v>24</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="9">
         <v>988</v>
       </c>
-      <c r="H84" t="s" s="11">
+      <c r="H84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I84" s="10">
+      <c r="I84" s="9">
         <v>107</v>
       </c>
     </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="8">
+    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>12.86</v>
       </c>
-      <c r="C85" s="10">
+      <c r="C85" s="9">
         <v>22.65</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>1.4</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="9">
         <v>52</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="9">
         <v>48</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="9">
         <v>1346</v>
       </c>
-      <c r="H85" t="s" s="11">
+      <c r="H85" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I85" s="9">
         <v>62</v>
       </c>
     </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="8">
+    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="8">
         <v>11.22</v>
       </c>
-      <c r="C86" s="10">
+      <c r="C86" s="9">
         <v>8.6</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>0.9</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E86" s="9">
         <v>94</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="9">
         <v>6</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="9">
         <v>1016</v>
       </c>
-      <c r="H86" t="s" s="11">
+      <c r="H86" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I86" s="10">
+      <c r="I86" s="9">
         <v>269</v>
       </c>
     </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="8">
+    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="8">
         <v>13.78</v>
       </c>
-      <c r="C87" s="10">
+      <c r="C87" s="9">
         <v>10.5</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>1.29</v>
       </c>
-      <c r="E87" s="10">
+      <c r="E87" s="9">
         <v>77</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="9">
         <v>23</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="9">
         <v>394</v>
       </c>
-      <c r="H87" t="s" s="11">
+      <c r="H87" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I87" s="10">
+      <c r="I87" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="8">
+    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="8">
         <v>12</v>
       </c>
-      <c r="C88" s="10">
+      <c r="C88" s="9">
         <v>13.3</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>1.18</v>
       </c>
-      <c r="E88" s="10">
+      <c r="E88" s="9">
         <v>52</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="9">
         <v>48</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="9">
         <v>567</v>
       </c>
-      <c r="H88" t="s" s="11">
+      <c r="H88" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I88" s="10">
+      <c r="I88" s="9">
         <v>63</v>
       </c>
     </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="8">
+    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="8">
         <v>13.03</v>
       </c>
-      <c r="C89" s="10">
+      <c r="C89" s="9">
         <v>20.37</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>1.18</v>
       </c>
-      <c r="E89" s="10">
+      <c r="E89" s="9">
         <v>72</v>
       </c>
-      <c r="F89" s="10">
+      <c r="F89" s="9">
         <v>28</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="9">
         <v>1152</v>
       </c>
-      <c r="H89" t="s" s="11">
+      <c r="H89" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I89" s="10">
+      <c r="I89" s="9">
         <v>75</v>
       </c>
     </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="8">
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="8">
         <v>12.51</v>
       </c>
-      <c r="C90" s="10">
+      <c r="C90" s="9">
         <v>15.2</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>1.29</v>
       </c>
-      <c r="E90" s="10">
+      <c r="E90" s="9">
         <v>67</v>
       </c>
-      <c r="F90" s="10">
+      <c r="F90" s="9">
         <v>33</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="9">
         <v>1097</v>
       </c>
-      <c r="H90" t="s" s="11">
+      <c r="H90" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="10">
+      <c r="I90" s="9">
         <v>258</v>
       </c>
     </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" t="s" s="8">
+    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="8">
         <v>15.76</v>
       </c>
-      <c r="C91" s="10">
+      <c r="C91" s="9">
         <v>15.3</v>
       </c>
-      <c r="D91" s="10">
-        <v>1.12</v>
-      </c>
-      <c r="E91" s="10">
+      <c r="D91" s="9">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E91" s="9">
         <v>91</v>
       </c>
-      <c r="F91" s="10">
+      <c r="F91" s="9">
         <v>9</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="9">
         <v>380</v>
       </c>
-      <c r="H91" t="s" s="11">
+      <c r="H91" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I91" s="10">
+      <c r="I91" s="9">
         <v>142</v>
       </c>
     </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="8">
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B92" s="9">
+      <c r="B92" s="8">
         <v>11.51</v>
       </c>
-      <c r="C92" s="10">
+      <c r="C92" s="9">
         <v>20.68</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>1.47</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="9">
         <v>66</v>
       </c>
-      <c r="F92" s="10">
+      <c r="F92" s="9">
         <v>34</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="9">
         <v>1283</v>
       </c>
-      <c r="H92" t="s" s="11">
+      <c r="H92" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I92" s="10">
+      <c r="I92" s="9">
         <v>78</v>
       </c>
     </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="8">
+    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B93" s="9">
+      <c r="B93" s="8">
         <v>11.98</v>
       </c>
-      <c r="C93" s="10">
+      <c r="C93" s="9">
         <v>16.61</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>1.06</v>
       </c>
-      <c r="E93" s="10">
+      <c r="E93" s="9">
         <v>92</v>
       </c>
-      <c r="F93" s="10">
+      <c r="F93" s="9">
         <v>8</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="9">
         <v>342</v>
       </c>
-      <c r="H93" t="s" s="11">
+      <c r="H93" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I93" s="10">
+      <c r="I93" s="9">
         <v>249</v>
       </c>
     </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="8">
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B94" s="9">
+      <c r="B94" s="8">
         <v>13.21</v>
       </c>
-      <c r="C94" s="10">
+      <c r="C94" s="9">
         <v>6.75</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>1.17</v>
       </c>
-      <c r="E94" s="10">
+      <c r="E94" s="9">
         <v>65</v>
       </c>
-      <c r="F94" s="10">
+      <c r="F94" s="9">
         <v>35</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="9">
         <v>394</v>
       </c>
-      <c r="H94" t="s" s="11">
+      <c r="H94" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="10">
+      <c r="I94" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" t="s" s="8">
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B95" s="9">
+      <c r="B95" s="8">
         <v>13.4</v>
       </c>
-      <c r="C95" s="10">
+      <c r="C95" s="9">
         <v>11.35</v>
       </c>
-      <c r="D95" s="10">
-        <v>1.13</v>
-      </c>
-      <c r="E95" s="10">
+      <c r="D95" s="9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E95" s="9">
         <v>81</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="9">
         <v>19</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="9">
         <v>966</v>
       </c>
-      <c r="H95" t="s" s="11">
+      <c r="H95" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I95" s="10">
+      <c r="I95" s="9">
         <v>102</v>
       </c>
     </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="8">
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="9">
+      <c r="B96" s="8">
         <v>12.19</v>
       </c>
-      <c r="C96" s="10">
+      <c r="C96" s="9">
         <v>16.41</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>0.98</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E96" s="9">
         <v>70</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F96" s="9">
         <v>30</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="9">
         <v>1328</v>
       </c>
-      <c r="H96" t="s" s="11">
+      <c r="H96" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I96" s="10">
+      <c r="I96" s="9">
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="8">
+    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B97" s="9">
+      <c r="B97" s="8">
         <v>11.41</v>
       </c>
-      <c r="C97" s="10">
+      <c r="C97" s="9">
         <v>14.69</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>1.24</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E97" s="9">
         <v>54</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F97" s="9">
         <v>46</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="9">
         <v>532</v>
       </c>
-      <c r="H97" t="s" s="11">
+      <c r="H97" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I97" s="10">
+      <c r="I97" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="8">
+    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B98" s="9">
+      <c r="B98" s="8">
         <v>10.62</v>
       </c>
-      <c r="C98" s="10">
-        <v>10.21</v>
-      </c>
-      <c r="D98" s="10">
+      <c r="C98" s="9">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D98" s="9">
         <v>1.2</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E98" s="9">
         <v>94</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F98" s="9">
         <v>6</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G98" s="9">
         <v>1396</v>
       </c>
-      <c r="H98" t="s" s="11">
+      <c r="H98" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="I98" s="10">
+      <c r="I98" s="9">
         <v>291</v>
       </c>
     </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="8">
+    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B99" s="9">
+      <c r="B99" s="8">
         <v>13.29</v>
       </c>
-      <c r="C99" s="10">
+      <c r="C99" s="9">
         <v>19.82</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>0.87</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="9">
         <v>79</v>
       </c>
-      <c r="F99" s="10">
+      <c r="F99" s="9">
         <v>21</v>
       </c>
-      <c r="G99" s="10">
+      <c r="G99" s="9">
         <v>406</v>
       </c>
-      <c r="H99" t="s" s="11">
+      <c r="H99" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I99" s="10">
+      <c r="I99" s="9">
         <v>57</v>
       </c>
     </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="8">
+    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B100" s="9">
+      <c r="B100" s="8">
         <v>11.72</v>
       </c>
-      <c r="C100" s="10">
+      <c r="C100" s="9">
         <v>14.12</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>1.44</v>
       </c>
-      <c r="E100" s="10">
+      <c r="E100" s="9">
         <v>98</v>
       </c>
-      <c r="F100" s="10">
+      <c r="F100" s="9">
         <v>2</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="9">
         <v>1018</v>
       </c>
-      <c r="H100" t="s" s="11">
+      <c r="H100" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I100" s="10">
+      <c r="I100" s="9">
         <v>136</v>
       </c>
     </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="8">
+    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B101" s="9">
+      <c r="B101" s="8">
         <v>11.91</v>
       </c>
-      <c r="C101" s="10">
+      <c r="C101" s="9">
         <v>15.23</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>1.41</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E101" s="9">
         <v>63</v>
       </c>
-      <c r="F101" s="10">
+      <c r="F101" s="9">
         <v>37</v>
       </c>
-      <c r="G101" s="10">
+      <c r="G101" s="9">
         <v>664</v>
       </c>
-      <c r="H101" t="s" s="11">
+      <c r="H101" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I101" s="10">
+      <c r="I101" s="9">
         <v>163</v>
       </c>
     </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="8">
+    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="9">
+      <c r="B102" s="8">
         <v>13.44</v>
       </c>
-      <c r="C102" s="10">
+      <c r="C102" s="9">
         <v>16.25</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="9">
         <v>1.21</v>
       </c>
-      <c r="E102" s="10">
+      <c r="E102" s="9">
         <v>96</v>
       </c>
-      <c r="F102" s="10">
+      <c r="F102" s="9">
         <v>4</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="9">
         <v>1105</v>
       </c>
-      <c r="H102" t="s" s="11">
+      <c r="H102" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I102" s="10">
+      <c r="I102" s="9">
         <v>236</v>
       </c>
     </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" s="12"/>
-      <c r="B103" s="13"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
+    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="11"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
